--- a/biology/Botanique/Chaetocarpus/Chaetocarpus.xlsx
+++ b/biology/Botanique/Chaetocarpus/Chaetocarpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaetocarpus est un genre de plantes à fleurs de la famille des Peraceae, anciennement classé dans la famille des Euphorbiaceae, d'abord décrit comme un genre en 1854[1],[2]. Les espèces du genre Chaetocarpus sont  des arbres ou des arbustes. Ils sont originaires des Amériques, d'Afrique, et d'Asie[3],[4]. Certaines espèces sont en voie de disparition[5].
-Espèces[4]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaetocarpus est un genre de plantes à fleurs de la famille des Peraceae, anciennement classé dans la famille des Euphorbiaceae, d'abord décrit comme un genre en 1854,. Les espèces du genre Chaetocarpus sont  des arbres ou des arbustes. Ils sont originaires des Amériques, d'Afrique, et d'Asie,. Certaines espèces sont en voie de disparition.
+Espèces
 Chaetocarpus acutifolius (Britton &amp; P. Wilson) Borhidi - Sierra de Moa à Cuba
 Chaetocarpus africanus Pax - Centre Afrique
 Chaetocarpus castanocarpus (Roxb.) Thwaites - Asie du sud-est, Yunnan, Assam, Bangladesh, Sri-Lanka
